--- a/Config Files/AOC-4_NBFC_CFS_nodes_seperated_config_new.xlsx
+++ b/Config Files/AOC-4_NBFC_CFS_nodes_seperated_config_new.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF70447-6C46-4EBD-9909-48D3B31BF512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB29517-8390-496C-8BC3-F4CDF942D17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$237</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="356">
   <si>
     <t>Field_Name</t>
   </si>
@@ -296,9 +299,6 @@
   </si>
   <si>
     <t>liabilities</t>
-  </si>
-  <si>
-    <t>total_liabilities</t>
   </si>
   <si>
     <t>TOT_LIAB_EQT_CR</t>
@@ -620,9 +620,6 @@
     <t>total_equity</t>
   </si>
   <si>
-    <t>equity_share_capital+other_Equity</t>
-  </si>
-  <si>
     <t>nbfc_financials_bs_subTotals</t>
   </si>
   <si>
@@ -635,9 +632,6 @@
     <t>total_non_financial_liabilities</t>
   </si>
   <si>
-    <t>current_tax_liabilities_net+deferred_tax_liabilites_net+other_non_financial_liabilities</t>
-  </si>
-  <si>
     <t>total_financial_assets</t>
   </si>
   <si>
@@ -1083,6 +1077,21 @@
   </si>
   <si>
     <t>disclosures_director_report</t>
+  </si>
+  <si>
+    <t>SUBORD_LIAB_EPR</t>
+  </si>
+  <si>
+    <t>TOTAL_INCOME_PR</t>
+  </si>
+  <si>
+    <t>TOT_EQUITY_CR</t>
+  </si>
+  <si>
+    <t>TOT_EQUITY_EPR</t>
+  </si>
+  <si>
+    <t>current_tax_liabilities_net+deferred_tax_liabilites_net+other_non_financial_liabilities+provisions</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1713,7 +1722,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2906,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I251"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="H239" sqref="H239"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -4397,7 +4405,7 @@
     </row>
     <row r="55" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>11</v>
@@ -4409,24 +4417,24 @@
         <v>13</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="I55" s="30" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>11</v>
@@ -4438,7 +4446,7 @@
         <v>13</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>15</v>
@@ -4447,15 +4455,15 @@
         <v>16</v>
       </c>
       <c r="H56" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I56" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="I56" s="30" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>11</v>
@@ -4467,7 +4475,7 @@
         <v>13</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>15</v>
@@ -4476,15 +4484,15 @@
         <v>16</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I57" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>11</v>
@@ -4496,7 +4504,7 @@
         <v>13</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>15</v>
@@ -4505,15 +4513,15 @@
         <v>16</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I58" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>11</v>
@@ -4525,7 +4533,7 @@
         <v>13</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>15</v>
@@ -4534,15 +4542,15 @@
         <v>16</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>11</v>
@@ -4554,7 +4562,7 @@
         <v>13</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>15</v>
@@ -4563,15 +4571,15 @@
         <v>16</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I60" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>11</v>
@@ -4583,7 +4591,7 @@
         <v>13</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>15</v>
@@ -4592,15 +4600,15 @@
         <v>16</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I61" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>11</v>
@@ -4612,7 +4620,7 @@
         <v>13</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>15</v>
@@ -4621,15 +4629,15 @@
         <v>16</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I62" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>11</v>
@@ -4641,7 +4649,7 @@
         <v>13</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>15</v>
@@ -4650,15 +4658,15 @@
         <v>16</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I63" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>11</v>
@@ -4670,7 +4678,7 @@
         <v>13</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>15</v>
@@ -4679,15 +4687,15 @@
         <v>16</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I64" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>11</v>
@@ -4699,7 +4707,7 @@
         <v>13</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>15</v>
@@ -4708,15 +4716,15 @@
         <v>16</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I65" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>11</v>
@@ -4728,7 +4736,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>15</v>
@@ -4737,15 +4745,15 @@
         <v>16</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I66" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>11</v>
@@ -4757,7 +4765,7 @@
         <v>13</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>15</v>
@@ -4766,15 +4774,15 @@
         <v>16</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I67" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>11</v>
@@ -4786,7 +4794,7 @@
         <v>13</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>15</v>
@@ -4795,15 +4803,15 @@
         <v>16</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I68" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>11</v>
@@ -4815,7 +4823,7 @@
         <v>13</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>15</v>
@@ -4824,15 +4832,15 @@
         <v>16</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I69" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>11</v>
@@ -4844,7 +4852,7 @@
         <v>13</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>15</v>
@@ -4853,15 +4861,15 @@
         <v>16</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I70" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="13.5" customHeight="1">
       <c r="A71" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>11</v>
@@ -4873,7 +4881,7 @@
         <v>13</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>15</v>
@@ -4882,28 +4890,28 @@
         <v>16</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
@@ -4911,28 +4919,28 @@
         <v>16</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I72" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A73" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F73" s="3" t="s">
         <v>15</v>
       </c>
@@ -4940,28 +4948,28 @@
         <v>16</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I73" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="F74" s="3" t="s">
         <v>15</v>
       </c>
@@ -4969,28 +4977,28 @@
         <v>16</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A75" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="F75" s="3" t="s">
         <v>15</v>
       </c>
@@ -4998,28 +5006,28 @@
         <v>16</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I75" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A76" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>15</v>
       </c>
@@ -5027,28 +5035,28 @@
         <v>16</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I76" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A77" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F77" s="3" t="s">
         <v>15</v>
       </c>
@@ -5056,28 +5064,28 @@
         <v>16</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I77" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A78" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="F78" s="3" t="s">
         <v>15</v>
       </c>
@@ -5085,28 +5093,28 @@
         <v>16</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I78" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A79" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="F79" s="3" t="s">
         <v>15</v>
       </c>
@@ -5114,28 +5122,28 @@
         <v>16</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I79" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A80" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B80" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="F80" s="3" t="s">
         <v>15</v>
       </c>
@@ -5143,28 +5151,28 @@
         <v>16</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I80" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A81" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B81" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>15</v>
       </c>
@@ -5172,28 +5180,28 @@
         <v>16</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I81" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A82" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B82" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="F82" s="3" t="s">
         <v>15</v>
       </c>
@@ -5201,28 +5209,28 @@
         <v>16</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I82" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="30" customHeight="1">
       <c r="A83" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B83" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>15</v>
       </c>
@@ -5230,28 +5238,28 @@
         <v>16</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I83" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A84" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B84" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="F84" s="3" t="s">
         <v>15</v>
       </c>
@@ -5259,28 +5267,28 @@
         <v>16</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I84" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="F85" s="3" t="s">
         <v>15</v>
       </c>
@@ -5288,28 +5296,28 @@
         <v>16</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I85" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="13.5" customHeight="1">
       <c r="A86" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B86" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="F86" s="3" t="s">
         <v>15</v>
       </c>
@@ -5317,73 +5325,67 @@
         <v>16</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="39.6" customHeight="1">
       <c r="A87" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E87" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" s="36" t="s">
+      <c r="F87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I87" s="38" t="s">
         <v>159</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="I87" s="38" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="237.75" customHeight="1">
       <c r="A88" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B88" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="40" t="s">
+      <c r="E88" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E88" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="F88" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I88" s="39" t="s">
-        <v>161</v>
-      </c>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="39"/>
     </row>
     <row r="89" spans="1:9" ht="13.5" customHeight="1">
       <c r="A89" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B89" s="18"/>
       <c r="C89" s="10"/>
@@ -5396,7 +5398,7 @@
     </row>
     <row r="90" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A90" s="12" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>11</v>
@@ -5408,7 +5410,7 @@
         <v>13</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>27</v>
@@ -5417,15 +5419,15 @@
         <v>16</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I90" s="30" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>11</v>
@@ -5437,7 +5439,7 @@
         <v>13</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>27</v>
@@ -5446,15 +5448,15 @@
         <v>16</v>
       </c>
       <c r="H91" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I91" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="I91" s="30" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A92" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>11</v>
@@ -5466,7 +5468,7 @@
         <v>13</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>27</v>
@@ -5475,15 +5477,15 @@
         <v>16</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I92" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A93" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>11</v>
@@ -5495,7 +5497,7 @@
         <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>27</v>
@@ -5504,15 +5506,15 @@
         <v>16</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I93" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>11</v>
@@ -5524,7 +5526,7 @@
         <v>13</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>27</v>
@@ -5533,15 +5535,15 @@
         <v>16</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I94" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A95" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>11</v>
@@ -5553,7 +5555,7 @@
         <v>13</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>27</v>
@@ -5562,15 +5564,15 @@
         <v>16</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I95" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A96" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>11</v>
@@ -5582,7 +5584,7 @@
         <v>13</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>27</v>
@@ -5591,15 +5593,15 @@
         <v>16</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I96" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A97" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>11</v>
@@ -5611,7 +5613,7 @@
         <v>13</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>27</v>
@@ -5620,15 +5622,15 @@
         <v>16</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I97" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A98" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>11</v>
@@ -5640,7 +5642,7 @@
         <v>13</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>27</v>
@@ -5649,15 +5651,15 @@
         <v>16</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I98" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>11</v>
@@ -5669,7 +5671,7 @@
         <v>13</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>112</v>
+        <v>351</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>27</v>
@@ -5678,15 +5680,15 @@
         <v>16</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I99" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A100" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>11</v>
@@ -5698,7 +5700,7 @@
         <v>13</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>27</v>
@@ -5707,15 +5709,15 @@
         <v>16</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I100" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A101" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>11</v>
@@ -5727,7 +5729,7 @@
         <v>13</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>27</v>
@@ -5736,15 +5738,15 @@
         <v>16</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I101" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>11</v>
@@ -5756,7 +5758,7 @@
         <v>13</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>27</v>
@@ -5765,15 +5767,15 @@
         <v>16</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I102" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A103" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>11</v>
@@ -5785,7 +5787,7 @@
         <v>13</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>27</v>
@@ -5794,15 +5796,15 @@
         <v>16</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I103" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A104" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>11</v>
@@ -5814,7 +5816,7 @@
         <v>13</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>27</v>
@@ -5823,15 +5825,15 @@
         <v>16</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I104" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A105" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>11</v>
@@ -5843,7 +5845,7 @@
         <v>13</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>27</v>
@@ -5852,15 +5854,15 @@
         <v>16</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I105" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="13.5" customHeight="1">
       <c r="A106" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>11</v>
@@ -5872,7 +5874,7 @@
         <v>13</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>27</v>
@@ -5881,27 +5883,27 @@
         <v>16</v>
       </c>
       <c r="H106" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A107" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B107" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="E107" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>27</v>
@@ -5910,15 +5912,15 @@
         <v>16</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I107" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A108" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>11</v>
@@ -5927,10 +5929,10 @@
         <v>12</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>27</v>
@@ -5939,15 +5941,15 @@
         <v>16</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I108" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A109" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>11</v>
@@ -5956,10 +5958,10 @@
         <v>12</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>27</v>
@@ -5968,15 +5970,15 @@
         <v>16</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I109" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>11</v>
@@ -5985,10 +5987,10 @@
         <v>12</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>27</v>
@@ -5997,15 +5999,15 @@
         <v>16</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I110" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A111" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>11</v>
@@ -6014,10 +6016,10 @@
         <v>12</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>27</v>
@@ -6026,15 +6028,15 @@
         <v>16</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I111" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A112" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>11</v>
@@ -6043,10 +6045,10 @@
         <v>12</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>27</v>
@@ -6055,15 +6057,15 @@
         <v>16</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I112" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A113" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>11</v>
@@ -6072,10 +6074,10 @@
         <v>12</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>27</v>
@@ -6084,15 +6086,15 @@
         <v>16</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I113" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A114" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B114" s="13" t="s">
         <v>11</v>
@@ -6101,10 +6103,10 @@
         <v>12</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>27</v>
@@ -6113,15 +6115,15 @@
         <v>16</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I114" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A115" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B115" s="13" t="s">
         <v>11</v>
@@ -6130,10 +6132,10 @@
         <v>12</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>27</v>
@@ -6142,15 +6144,15 @@
         <v>16</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I115" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A116" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B116" s="13" t="s">
         <v>11</v>
@@ -6159,10 +6161,10 @@
         <v>12</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>27</v>
@@ -6171,15 +6173,15 @@
         <v>16</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I116" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A117" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>11</v>
@@ -6188,10 +6190,10 @@
         <v>12</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>27</v>
@@ -6200,15 +6202,15 @@
         <v>16</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I117" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="30" customHeight="1">
       <c r="A118" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B118" s="13" t="s">
         <v>11</v>
@@ -6217,10 +6219,10 @@
         <v>12</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>27</v>
@@ -6229,15 +6231,15 @@
         <v>16</v>
       </c>
       <c r="H118" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I118" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A119" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>11</v>
@@ -6246,10 +6248,10 @@
         <v>12</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>27</v>
@@ -6258,15 +6260,15 @@
         <v>16</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I119" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A120" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B120" s="13" t="s">
         <v>11</v>
@@ -6275,10 +6277,10 @@
         <v>12</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>27</v>
@@ -6287,15 +6289,15 @@
         <v>16</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I120" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="13.5" customHeight="1">
       <c r="A121" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>11</v>
@@ -6304,10 +6306,10 @@
         <v>12</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>27</v>
@@ -6316,15 +6318,15 @@
         <v>16</v>
       </c>
       <c r="H121" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="39.6" customHeight="1">
       <c r="A122" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B122" s="35" t="s">
         <v>11</v>
@@ -6333,10 +6335,10 @@
         <v>12</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E122" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>27</v>
@@ -6345,44 +6347,38 @@
         <v>16</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="237.75" customHeight="1">
       <c r="A123" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B123" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="40" t="s">
+      <c r="E123" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E123" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="F123" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G123" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H123" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I123" s="39" t="s">
-        <v>161</v>
-      </c>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="39"/>
     </row>
     <row r="124" spans="1:9" ht="21.75" customHeight="1">
       <c r="A124" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B124" s="18"/>
       <c r="C124" s="10"/>
@@ -6395,36 +6391,36 @@
     </row>
     <row r="125" spans="1:9" ht="21.75" customHeight="1">
       <c r="A125" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B125" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E125" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H125" s="14" t="s">
-        <v>200</v>
-      </c>
       <c r="I125" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="84.75" customHeight="1">
       <c r="A126" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>11</v>
@@ -6433,10 +6429,10 @@
         <v>12</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F126" s="13" t="s">
         <v>15</v>
@@ -6445,15 +6441,15 @@
         <v>16</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I126" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="30" customHeight="1">
       <c r="A127" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>11</v>
@@ -6462,10 +6458,10 @@
         <v>12</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>204</v>
+        <v>355</v>
       </c>
       <c r="F127" s="13" t="s">
         <v>15</v>
@@ -6474,15 +6470,15 @@
         <v>16</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I127" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="46.5" customHeight="1">
       <c r="A128" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>11</v>
@@ -6491,10 +6487,10 @@
         <v>12</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F128" s="13" t="s">
         <v>15</v>
@@ -6503,15 +6499,15 @@
         <v>16</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="66" customHeight="1">
       <c r="A129" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>11</v>
@@ -6520,10 +6516,10 @@
         <v>12</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F129" s="13" t="s">
         <v>15</v>
@@ -6532,15 +6528,15 @@
         <v>16</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="33" customHeight="1">
       <c r="A130" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B130" s="47" t="s">
         <v>11</v>
@@ -6549,10 +6545,10 @@
         <v>12</v>
       </c>
       <c r="D130" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E130" s="48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>15</v>
@@ -6561,21 +6557,27 @@
         <v>16</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I130" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="25.5" customHeight="1">
       <c r="A131" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B131" s="49"/>
-      <c r="C131" s="50"/>
-      <c r="D131" s="50"/>
+        <v>208</v>
+      </c>
+      <c r="B131" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="E131" s="35" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>15</v>
@@ -6584,19 +6586,19 @@
         <v>16</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I131" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="25.5" customHeight="1">
       <c r="A132" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="B132" s="51"/>
-      <c r="C132" s="52"/>
-      <c r="D132" s="52"/>
+        <v>210</v>
+      </c>
+      <c r="B132" s="50"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="51"/>
       <c r="E132" s="9"/>
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
@@ -6605,36 +6607,36 @@
     </row>
     <row r="133" spans="1:9" ht="21.75" customHeight="1">
       <c r="A133" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B133" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B133" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="E133" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H133" s="14" t="s">
-        <v>200</v>
-      </c>
       <c r="I133" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="84.75" customHeight="1">
       <c r="A134" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>11</v>
@@ -6643,10 +6645,10 @@
         <v>12</v>
       </c>
       <c r="D134" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F134" s="13" t="s">
         <v>27</v>
@@ -6655,15 +6657,15 @@
         <v>16</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I134" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="30" customHeight="1">
       <c r="A135" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B135" s="13" t="s">
         <v>11</v>
@@ -6672,10 +6674,10 @@
         <v>12</v>
       </c>
       <c r="D135" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>204</v>
+        <v>355</v>
       </c>
       <c r="F135" s="13" t="s">
         <v>27</v>
@@ -6684,15 +6686,15 @@
         <v>16</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I135" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="46.5" customHeight="1">
       <c r="A136" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>11</v>
@@ -6701,10 +6703,10 @@
         <v>12</v>
       </c>
       <c r="D136" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F136" s="13" t="s">
         <v>27</v>
@@ -6713,15 +6715,15 @@
         <v>16</v>
       </c>
       <c r="H136" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I136" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="66" customHeight="1">
       <c r="A137" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B137" s="13" t="s">
         <v>11</v>
@@ -6730,10 +6732,10 @@
         <v>12</v>
       </c>
       <c r="D137" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F137" s="13" t="s">
         <v>27</v>
@@ -6742,15 +6744,15 @@
         <v>16</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I137" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="33" customHeight="1">
       <c r="A138" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>11</v>
@@ -6759,10 +6761,10 @@
         <v>12</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E138" s="48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>27</v>
@@ -6771,46 +6773,46 @@
         <v>16</v>
       </c>
       <c r="H138" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I138" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="25.5" customHeight="1">
       <c r="A139" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B139" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="I139" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A140" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="B139" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G139" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H139" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="I139" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A140" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="B140" s="56"/>
+      <c r="B140" s="55"/>
       <c r="C140" s="18"/>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
@@ -6821,36 +6823,36 @@
     </row>
     <row r="141" spans="1:9" ht="13.5" customHeight="1">
       <c r="A141" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B141" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B141" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H141" s="14" t="s">
-        <v>218</v>
-      </c>
       <c r="I141" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="13.5" customHeight="1">
       <c r="A142" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>11</v>
@@ -6859,27 +6861,27 @@
         <v>12</v>
       </c>
       <c r="D142" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="I142" s="16" t="s">
         <v>216</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H142" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="I142" s="16" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A143" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>11</v>
@@ -6888,10 +6890,10 @@
         <v>12</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>15</v>
@@ -6900,15 +6902,15 @@
         <v>16</v>
       </c>
       <c r="H143" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="I143" s="33" t="s">
         <v>218</v>
-      </c>
-      <c r="I143" s="33" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A144" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B144" s="13" t="s">
         <v>11</v>
@@ -6917,10 +6919,10 @@
         <v>12</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>15</v>
@@ -6929,15 +6931,15 @@
         <v>16</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I144" s="30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A145" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>11</v>
@@ -6946,10 +6948,10 @@
         <v>12</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>15</v>
@@ -6958,15 +6960,15 @@
         <v>16</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I145" s="30" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="30" customHeight="1">
       <c r="A146" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>11</v>
@@ -6975,10 +6977,10 @@
         <v>12</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>15</v>
@@ -6987,15 +6989,15 @@
         <v>16</v>
       </c>
       <c r="H146" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I146" s="30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A147" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B147" s="13" t="s">
         <v>11</v>
@@ -7004,10 +7006,10 @@
         <v>12</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>15</v>
@@ -7016,15 +7018,15 @@
         <v>16</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I147" s="30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A148" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B148" s="13" t="s">
         <v>11</v>
@@ -7033,10 +7035,10 @@
         <v>12</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>15</v>
@@ -7045,15 +7047,15 @@
         <v>16</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I148" s="30" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A149" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B149" s="47" t="s">
         <v>11</v>
@@ -7062,10 +7064,10 @@
         <v>12</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>15</v>
@@ -7074,17 +7076,17 @@
         <v>16</v>
       </c>
       <c r="H149" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I149" s="30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A150" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="B150" s="56"/>
+      <c r="A150" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="B150" s="55"/>
       <c r="C150" s="18"/>
       <c r="D150" s="10"/>
       <c r="E150" s="10"/>
@@ -7095,36 +7097,36 @@
     </row>
     <row r="151" spans="1:9" ht="13.5" customHeight="1">
       <c r="A151" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B151" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B151" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G151" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H151" s="14" t="s">
-        <v>218</v>
-      </c>
       <c r="I151" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="13.5" customHeight="1">
       <c r="A152" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>11</v>
@@ -7133,27 +7135,27 @@
         <v>12</v>
       </c>
       <c r="D152" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G152" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="I152" s="16" t="s">
         <v>216</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G152" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H152" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="I152" s="16" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>11</v>
@@ -7162,10 +7164,10 @@
         <v>12</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>27</v>
@@ -7174,15 +7176,15 @@
         <v>16</v>
       </c>
       <c r="H153" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="I153" s="33" t="s">
         <v>218</v>
-      </c>
-      <c r="I153" s="33" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A154" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>11</v>
@@ -7191,10 +7193,10 @@
         <v>12</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>27</v>
@@ -7203,15 +7205,15 @@
         <v>16</v>
       </c>
       <c r="H154" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I154" s="30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A155" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>11</v>
@@ -7220,10 +7222,10 @@
         <v>12</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>27</v>
@@ -7232,15 +7234,15 @@
         <v>16</v>
       </c>
       <c r="H155" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I155" s="30" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="30" customHeight="1">
       <c r="A156" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B156" s="13" t="s">
         <v>11</v>
@@ -7249,10 +7251,10 @@
         <v>12</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>27</v>
@@ -7261,15 +7263,15 @@
         <v>16</v>
       </c>
       <c r="H156" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I156" s="30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A157" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B157" s="13" t="s">
         <v>11</v>
@@ -7278,10 +7280,10 @@
         <v>12</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>27</v>
@@ -7290,15 +7292,15 @@
         <v>16</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I157" s="30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A158" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B158" s="13" t="s">
         <v>11</v>
@@ -7307,10 +7309,10 @@
         <v>12</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>27</v>
@@ -7319,15 +7321,15 @@
         <v>16</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I158" s="30" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A159" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B159" s="13" t="s">
         <v>11</v>
@@ -7336,10 +7338,10 @@
         <v>12</v>
       </c>
       <c r="D159" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>27</v>
@@ -7348,157 +7350,157 @@
         <v>16</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I159" s="30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A160" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="B160" s="59"/>
-      <c r="C160" s="50"/>
-      <c r="D160" s="50"/>
+      <c r="A160" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="B160" s="58"/>
+      <c r="C160" s="49"/>
+      <c r="D160" s="49"/>
       <c r="E160" s="9"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
-      <c r="I160" s="60"/>
+      <c r="I160" s="59"/>
     </row>
     <row r="161" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A161" s="61" t="s">
+      <c r="A161" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="B161" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H161" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="I161" s="62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A162" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="B161" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C161" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="E161" s="3" t="s">
+      <c r="B162" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E162" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F161" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G161" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H161" s="37" t="s">
+      <c r="F162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H162" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="I162" s="62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="45" customHeight="1">
+      <c r="A163" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="I161" s="63" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A162" s="64" t="s">
+      <c r="B163" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B162" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E162" s="3" t="s">
+      <c r="F163" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H163" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="I163" s="65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A164" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="F162" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G162" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H162" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I162" s="63" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="45" customHeight="1">
-      <c r="A163" s="65" t="s">
+      <c r="B164" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B163" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E163" s="3" t="s">
+      <c r="F164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H164" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="I164" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="F163" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G163" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H163" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I163" s="66" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A164" s="64" t="s">
+    </row>
+    <row r="165" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A165" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="B164" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E164" s="3" t="s">
+      <c r="B165" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E165" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F164" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G164" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H164" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I164" s="63" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A165" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="B165" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>257</v>
-      </c>
       <c r="F165" s="3" t="s">
         <v>15</v>
       </c>
@@ -7506,15 +7508,15 @@
         <v>16</v>
       </c>
       <c r="H165" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I165" s="63" t="s">
-        <v>256</v>
+        <v>245</v>
+      </c>
+      <c r="I165" s="62" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="106.5" customHeight="1">
       <c r="A166" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B166" s="13" t="s">
         <v>11</v>
@@ -7523,10 +7525,10 @@
         <v>12</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E166" s="67" t="s">
-        <v>259</v>
+        <v>161</v>
+      </c>
+      <c r="E166" s="66" t="s">
+        <v>256</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>15</v>
@@ -7535,15 +7537,15 @@
         <v>16</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I166" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="13.5" customHeight="1">
       <c r="A167" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B167" s="13" t="s">
         <v>11</v>
@@ -7552,10 +7554,10 @@
         <v>12</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>15</v>
@@ -7564,15 +7566,15 @@
         <v>16</v>
       </c>
       <c r="H167" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="30" customHeight="1">
       <c r="A168" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B168" s="13" t="s">
         <v>11</v>
@@ -7581,10 +7583,10 @@
         <v>12</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>15</v>
@@ -7593,15 +7595,15 @@
         <v>16</v>
       </c>
       <c r="H168" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="13.5" customHeight="1">
       <c r="A169" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B169" s="13" t="s">
         <v>11</v>
@@ -7610,10 +7612,10 @@
         <v>12</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>15</v>
@@ -7622,15 +7624,15 @@
         <v>16</v>
       </c>
       <c r="H169" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="13.5" customHeight="1">
       <c r="A170" s="25" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B170" s="13" t="s">
         <v>11</v>
@@ -7639,10 +7641,10 @@
         <v>12</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>15</v>
@@ -7651,15 +7653,15 @@
         <v>16</v>
       </c>
       <c r="H170" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I170" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="13.5" customHeight="1">
       <c r="A171" s="25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B171" s="13" t="s">
         <v>11</v>
@@ -7668,10 +7670,10 @@
         <v>12</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>15</v>
@@ -7680,15 +7682,15 @@
         <v>16</v>
       </c>
       <c r="H171" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I171" s="25" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="13.5" customHeight="1">
       <c r="A172" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B172" s="13" t="s">
         <v>11</v>
@@ -7697,10 +7699,10 @@
         <v>12</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>15</v>
@@ -7709,15 +7711,15 @@
         <v>16</v>
       </c>
       <c r="H172" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I172" s="25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="13.5" customHeight="1">
       <c r="A173" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B173" s="13" t="s">
         <v>11</v>
@@ -7726,10 +7728,10 @@
         <v>12</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>15</v>
@@ -7738,15 +7740,15 @@
         <v>16</v>
       </c>
       <c r="H173" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I173" s="25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="13.5" customHeight="1">
       <c r="A174" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B174" s="13" t="s">
         <v>11</v>
@@ -7755,10 +7757,10 @@
         <v>12</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>15</v>
@@ -7767,15 +7769,15 @@
         <v>16</v>
       </c>
       <c r="H174" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I174" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="13.5" customHeight="1">
       <c r="A175" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B175" s="13" t="s">
         <v>11</v>
@@ -7784,10 +7786,10 @@
         <v>12</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E175" s="36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>15</v>
@@ -7796,15 +7798,15 @@
         <v>16</v>
       </c>
       <c r="H175" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I175" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="91.5" customHeight="1">
       <c r="A176" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B176" s="13" t="s">
         <v>11</v>
@@ -7813,10 +7815,10 @@
         <v>12</v>
       </c>
       <c r="D176" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="E176" s="68" t="s">
-        <v>279</v>
+        <v>161</v>
+      </c>
+      <c r="E176" s="67" t="s">
+        <v>276</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>15</v>
@@ -7825,15 +7827,15 @@
         <v>16</v>
       </c>
       <c r="H176" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I176" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="13.5" customHeight="1">
       <c r="A177" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B177" s="13" t="s">
         <v>11</v>
@@ -7842,10 +7844,10 @@
         <v>12</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E177" s="69" t="s">
-        <v>281</v>
+        <v>213</v>
+      </c>
+      <c r="E177" s="68" t="s">
+        <v>278</v>
       </c>
       <c r="F177" s="13" t="s">
         <v>15</v>
@@ -7854,15 +7856,15 @@
         <v>16</v>
       </c>
       <c r="H177" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I177" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="13.5" customHeight="1">
       <c r="A178" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B178" s="13" t="s">
         <v>11</v>
@@ -7871,10 +7873,10 @@
         <v>12</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>15</v>
@@ -7883,15 +7885,15 @@
         <v>16</v>
       </c>
       <c r="H178" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="13.5" customHeight="1">
       <c r="A179" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>11</v>
@@ -7900,10 +7902,10 @@
         <v>12</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>15</v>
@@ -7912,15 +7914,15 @@
         <v>16</v>
       </c>
       <c r="H179" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I179" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="13.5" customHeight="1">
       <c r="A180" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B180" s="13" t="s">
         <v>11</v>
@@ -7929,10 +7931,10 @@
         <v>12</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>15</v>
@@ -7941,15 +7943,15 @@
         <v>16</v>
       </c>
       <c r="H180" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I180" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="30" customHeight="1">
       <c r="A181" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B181" s="13" t="s">
         <v>11</v>
@@ -7958,10 +7960,10 @@
         <v>12</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>15</v>
@@ -7970,15 +7972,15 @@
         <v>16</v>
       </c>
       <c r="H181" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I181" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="30" customHeight="1">
       <c r="A182" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B182" s="13" t="s">
         <v>11</v>
@@ -7987,10 +7989,10 @@
         <v>12</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>15</v>
@@ -7999,15 +8001,15 @@
         <v>16</v>
       </c>
       <c r="H182" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I182" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="30" customHeight="1">
       <c r="A183" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B183" s="13" t="s">
         <v>11</v>
@@ -8016,10 +8018,10 @@
         <v>12</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>15</v>
@@ -8028,15 +8030,15 @@
         <v>16</v>
       </c>
       <c r="H183" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I183" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="30" customHeight="1">
       <c r="A184" s="12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B184" s="13" t="s">
         <v>11</v>
@@ -8045,10 +8047,10 @@
         <v>12</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>15</v>
@@ -8057,15 +8059,15 @@
         <v>16</v>
       </c>
       <c r="H184" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I184" s="12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="13.5" customHeight="1">
       <c r="A185" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B185" s="13" t="s">
         <v>11</v>
@@ -8074,10 +8076,10 @@
         <v>12</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>15</v>
@@ -8086,15 +8088,15 @@
         <v>16</v>
       </c>
       <c r="H185" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I185" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="13.5" customHeight="1">
       <c r="A186" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B186" s="13" t="s">
         <v>11</v>
@@ -8103,10 +8105,10 @@
         <v>12</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>15</v>
@@ -8115,15 +8117,15 @@
         <v>16</v>
       </c>
       <c r="H186" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I186" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="30" customHeight="1">
       <c r="A187" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B187" s="13" t="s">
         <v>11</v>
@@ -8132,10 +8134,10 @@
         <v>12</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>15</v>
@@ -8144,15 +8146,15 @@
         <v>16</v>
       </c>
       <c r="H187" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I187" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="30" customHeight="1">
       <c r="A188" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B188" s="47" t="s">
         <v>11</v>
@@ -8161,10 +8163,10 @@
         <v>12</v>
       </c>
       <c r="D188" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>15</v>
@@ -8173,173 +8175,173 @@
         <v>16</v>
       </c>
       <c r="H188" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I188" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A189" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="B189" s="50"/>
-      <c r="C189" s="50"/>
-      <c r="D189" s="50"/>
+      <c r="A189" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="B189" s="49"/>
+      <c r="C189" s="49"/>
+      <c r="D189" s="49"/>
       <c r="E189" s="9"/>
       <c r="F189" s="10"/>
       <c r="G189" s="43"/>
-      <c r="H189" s="70"/>
-      <c r="I189" s="71"/>
+      <c r="H189" s="69"/>
+      <c r="I189" s="70"/>
     </row>
     <row r="190" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A190" s="61" t="s">
+      <c r="A190" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="B190" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G190" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H190" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="I190" s="62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A191" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="B190" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="C190" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="E190" s="3" t="s">
+      <c r="B191" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G191" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H191" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="I191" s="62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="45" customHeight="1">
+      <c r="A192" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="B192" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G192" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H192" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="I192" s="65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A193" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="B193" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E193" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F190" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G190" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H190" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I190" s="63" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A191" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="B191" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E191" s="3" t="s">
+      <c r="F193" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G193" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H193" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="I193" s="62" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A194" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="B194" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E194" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F191" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G191" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H191" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I191" s="63" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="45" customHeight="1">
-      <c r="A192" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="B192" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G192" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H192" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I192" s="66" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A193" s="64" t="s">
+      <c r="F194" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G194" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H194" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="I194" s="62" t="s">
         <v>253</v>
-      </c>
-      <c r="B193" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G193" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H193" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I193" s="63" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A194" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="B194" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G194" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H194" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I194" s="63" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="106.5" customHeight="1">
       <c r="A195" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B195" s="13" t="s">
         <v>11</v>
@@ -8348,10 +8350,10 @@
         <v>12</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E195" s="67" t="s">
-        <v>259</v>
+        <v>161</v>
+      </c>
+      <c r="E195" s="66" t="s">
+        <v>256</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>27</v>
@@ -8360,15 +8362,15 @@
         <v>16</v>
       </c>
       <c r="H195" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I195" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="13.5" customHeight="1">
       <c r="A196" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B196" s="13" t="s">
         <v>11</v>
@@ -8377,10 +8379,10 @@
         <v>12</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>27</v>
@@ -8389,15 +8391,15 @@
         <v>16</v>
       </c>
       <c r="H196" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I196" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="30" customHeight="1">
       <c r="A197" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B197" s="13" t="s">
         <v>11</v>
@@ -8406,10 +8408,10 @@
         <v>12</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>27</v>
@@ -8418,15 +8420,15 @@
         <v>16</v>
       </c>
       <c r="H197" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I197" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="13.5" customHeight="1">
       <c r="A198" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B198" s="13" t="s">
         <v>11</v>
@@ -8435,10 +8437,10 @@
         <v>12</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>27</v>
@@ -8447,15 +8449,15 @@
         <v>16</v>
       </c>
       <c r="H198" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I198" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="13.5" customHeight="1">
       <c r="A199" s="25" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B199" s="13" t="s">
         <v>11</v>
@@ -8464,10 +8466,10 @@
         <v>12</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>27</v>
@@ -8476,15 +8478,15 @@
         <v>16</v>
       </c>
       <c r="H199" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I199" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="13.5" customHeight="1">
       <c r="A200" s="25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B200" s="13" t="s">
         <v>11</v>
@@ -8493,10 +8495,10 @@
         <v>12</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>27</v>
@@ -8505,15 +8507,15 @@
         <v>16</v>
       </c>
       <c r="H200" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I200" s="25" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="13.5" customHeight="1">
       <c r="A201" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B201" s="13" t="s">
         <v>11</v>
@@ -8522,10 +8524,10 @@
         <v>12</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>27</v>
@@ -8534,15 +8536,15 @@
         <v>16</v>
       </c>
       <c r="H201" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I201" s="25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="13.5" customHeight="1">
       <c r="A202" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B202" s="13" t="s">
         <v>11</v>
@@ -8551,10 +8553,10 @@
         <v>12</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>27</v>
@@ -8563,15 +8565,15 @@
         <v>16</v>
       </c>
       <c r="H202" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I202" s="25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="13.5" customHeight="1">
       <c r="A203" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B203" s="13" t="s">
         <v>11</v>
@@ -8580,10 +8582,10 @@
         <v>12</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>27</v>
@@ -8592,15 +8594,15 @@
         <v>16</v>
       </c>
       <c r="H203" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I203" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="13.5" customHeight="1">
       <c r="A204" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B204" s="13" t="s">
         <v>11</v>
@@ -8609,10 +8611,10 @@
         <v>12</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E204" s="36" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>27</v>
@@ -8621,15 +8623,15 @@
         <v>16</v>
       </c>
       <c r="H204" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="91.5" customHeight="1">
       <c r="A205" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B205" s="13" t="s">
         <v>11</v>
@@ -8638,10 +8640,10 @@
         <v>12</v>
       </c>
       <c r="D205" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="E205" s="68" t="s">
-        <v>279</v>
+        <v>161</v>
+      </c>
+      <c r="E205" s="67" t="s">
+        <v>276</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>27</v>
@@ -8650,15 +8652,15 @@
         <v>16</v>
       </c>
       <c r="H205" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I205" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="13.5" customHeight="1">
       <c r="A206" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B206" s="13" t="s">
         <v>11</v>
@@ -8667,10 +8669,10 @@
         <v>12</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E206" s="69" t="s">
-        <v>315</v>
+        <v>213</v>
+      </c>
+      <c r="E206" s="68" t="s">
+        <v>312</v>
       </c>
       <c r="F206" s="13" t="s">
         <v>27</v>
@@ -8679,15 +8681,15 @@
         <v>16</v>
       </c>
       <c r="H206" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="13.5" customHeight="1">
       <c r="A207" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B207" s="13" t="s">
         <v>11</v>
@@ -8696,10 +8698,10 @@
         <v>12</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>27</v>
@@ -8708,15 +8710,15 @@
         <v>16</v>
       </c>
       <c r="H207" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I207" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="13.5" customHeight="1">
       <c r="A208" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B208" s="13" t="s">
         <v>11</v>
@@ -8725,10 +8727,10 @@
         <v>12</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>27</v>
@@ -8737,15 +8739,15 @@
         <v>16</v>
       </c>
       <c r="H208" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I208" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="13.5" customHeight="1">
       <c r="A209" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B209" s="13" t="s">
         <v>11</v>
@@ -8754,10 +8756,10 @@
         <v>12</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>27</v>
@@ -8766,15 +8768,15 @@
         <v>16</v>
       </c>
       <c r="H209" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I209" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="30" customHeight="1">
       <c r="A210" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B210" s="13" t="s">
         <v>11</v>
@@ -8783,10 +8785,10 @@
         <v>12</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>27</v>
@@ -8795,15 +8797,15 @@
         <v>16</v>
       </c>
       <c r="H210" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I210" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="30" customHeight="1">
       <c r="A211" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B211" s="13" t="s">
         <v>11</v>
@@ -8812,10 +8814,10 @@
         <v>12</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>27</v>
@@ -8824,15 +8826,15 @@
         <v>16</v>
       </c>
       <c r="H211" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I211" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="30" customHeight="1">
       <c r="A212" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B212" s="13" t="s">
         <v>11</v>
@@ -8841,10 +8843,10 @@
         <v>12</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>27</v>
@@ -8853,15 +8855,15 @@
         <v>16</v>
       </c>
       <c r="H212" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I212" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="30" customHeight="1">
       <c r="A213" s="12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B213" s="13" t="s">
         <v>11</v>
@@ -8870,10 +8872,10 @@
         <v>12</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>27</v>
@@ -8882,15 +8884,15 @@
         <v>16</v>
       </c>
       <c r="H213" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I213" s="12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="13.5" customHeight="1">
       <c r="A214" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B214" s="13" t="s">
         <v>11</v>
@@ -8899,10 +8901,10 @@
         <v>12</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>27</v>
@@ -8911,15 +8913,15 @@
         <v>16</v>
       </c>
       <c r="H214" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I214" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="13.5" customHeight="1">
       <c r="A215" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B215" s="13" t="s">
         <v>11</v>
@@ -8928,10 +8930,10 @@
         <v>12</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>27</v>
@@ -8940,15 +8942,15 @@
         <v>16</v>
       </c>
       <c r="H215" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I215" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="30" customHeight="1">
       <c r="A216" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B216" s="13" t="s">
         <v>11</v>
@@ -8957,10 +8959,10 @@
         <v>12</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>27</v>
@@ -8969,15 +8971,15 @@
         <v>16</v>
       </c>
       <c r="H216" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I216" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="30" customHeight="1">
       <c r="A217" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B217" s="13" t="s">
         <v>11</v>
@@ -8986,10 +8988,10 @@
         <v>12</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>27</v>
@@ -8998,15 +9000,15 @@
         <v>16</v>
       </c>
       <c r="H217" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I217" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="17.100000000000001" customHeight="1">
-      <c r="A218" s="73" t="s">
-        <v>325</v>
+      <c r="A218" s="72" t="s">
+        <v>322</v>
       </c>
       <c r="B218" s="18"/>
       <c r="C218" s="10"/>
@@ -9015,11 +9017,11 @@
       <c r="F218" s="10"/>
       <c r="G218" s="43"/>
       <c r="H218" s="43"/>
-      <c r="I218" s="74"/>
+      <c r="I218" s="73"/>
     </row>
     <row r="219" spans="1:9" ht="30" customHeight="1">
       <c r="A219" s="16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B219" s="13" t="s">
         <v>11</v>
@@ -9028,10 +9030,10 @@
         <v>12</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>15</v>
@@ -9040,15 +9042,15 @@
         <v>16</v>
       </c>
       <c r="H219" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="I219" s="75" t="s">
-        <v>326</v>
+        <v>324</v>
+      </c>
+      <c r="I219" s="74" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="17.100000000000001" customHeight="1">
-      <c r="A220" s="73" t="s">
-        <v>325</v>
+      <c r="A220" s="72" t="s">
+        <v>322</v>
       </c>
       <c r="B220" s="18"/>
       <c r="C220" s="10"/>
@@ -9057,11 +9059,11 @@
       <c r="F220" s="10"/>
       <c r="G220" s="43"/>
       <c r="H220" s="43"/>
-      <c r="I220" s="76"/>
+      <c r="I220" s="75"/>
     </row>
     <row r="221" spans="1:9" ht="30" customHeight="1">
       <c r="A221" s="16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B221" s="13" t="s">
         <v>11</v>
@@ -9070,10 +9072,10 @@
         <v>12</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>27</v>
@@ -9082,15 +9084,15 @@
         <v>16</v>
       </c>
       <c r="H221" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="I221" s="75" t="s">
-        <v>326</v>
+        <v>324</v>
+      </c>
+      <c r="I221" s="74" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A222" s="55" t="s">
-        <v>328</v>
+      <c r="A222" s="54" t="s">
+        <v>325</v>
       </c>
       <c r="B222" s="18"/>
       <c r="C222" s="10"/>
@@ -9103,19 +9105,19 @@
     </row>
     <row r="223" spans="1:9" ht="14.45" customHeight="1">
       <c r="A223" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D223" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B223" s="13" t="s">
+      <c r="E223" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>22</v>
@@ -9123,16 +9125,16 @@
       <c r="G223" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H223" s="77" t="s">
-        <v>329</v>
+      <c r="H223" s="76" t="s">
+        <v>326</v>
       </c>
       <c r="I223" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A224" s="78" t="s">
-        <v>335</v>
+      <c r="A224" s="77" t="s">
+        <v>332</v>
       </c>
       <c r="B224" s="18"/>
       <c r="C224" s="10"/>
@@ -9145,7 +9147,7 @@
     </row>
     <row r="225" spans="1:9" ht="25.5" customHeight="1">
       <c r="A225" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B225" s="13" t="s">
         <v>11</v>
@@ -9154,10 +9156,10 @@
         <v>12</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>22</v>
@@ -9166,15 +9168,15 @@
         <v>16</v>
       </c>
       <c r="H225" s="15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I225" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A226" s="54" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A226" s="55" t="s">
-        <v>339</v>
       </c>
       <c r="B226" s="18"/>
       <c r="C226" s="10"/>
@@ -9202,10 +9204,10 @@
         <v>14</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H227" s="30" t="s">
         <v>10</v>
@@ -9229,10 +9231,10 @@
         <v>19</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H228" s="30" t="s">
         <v>17</v>
@@ -9241,7 +9243,7 @@
     </row>
     <row r="229" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A229" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B229" s="13" t="s">
         <v>11</v>
@@ -9253,22 +9255,22 @@
         <v>18</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H229" s="30" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I229" s="10"/>
     </row>
     <row r="230" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A230" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B230" s="13" t="s">
         <v>11</v>
@@ -9280,22 +9282,22 @@
         <v>18</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G230" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H230" s="30" t="s">
         <v>341</v>
-      </c>
-      <c r="H230" s="30" t="s">
-        <v>344</v>
       </c>
       <c r="I230" s="10"/>
     </row>
     <row r="231" spans="1:9" ht="13.5" customHeight="1">
       <c r="A231" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B231" s="13" t="s">
         <v>11</v>
@@ -9307,22 +9309,22 @@
         <v>18</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I231" s="10"/>
     </row>
     <row r="232" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A232" s="12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B232" s="13" t="s">
         <v>11</v>
@@ -9331,25 +9333,25 @@
         <v>12</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H232" s="30" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I232" s="10"/>
     </row>
     <row r="233" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A233" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B233" s="13" t="s">
         <v>11</v>
@@ -9358,25 +9360,25 @@
         <v>12</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H233" s="30" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I233" s="10"/>
     </row>
     <row r="234" spans="1:9" ht="17.100000000000001" customHeight="1">
-      <c r="A234" s="79" t="s">
-        <v>349</v>
+      <c r="A234" s="78" t="s">
+        <v>346</v>
       </c>
       <c r="B234" s="13" t="s">
         <v>11</v>
@@ -9388,22 +9390,22 @@
         <v>18</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H234" s="31" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I234" s="10"/>
     </row>
     <row r="235" spans="1:9" ht="30" customHeight="1">
       <c r="A235" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B235" s="13" t="s">
         <v>11</v>
@@ -9412,25 +9414,25 @@
         <v>12</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G235" s="40" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H235" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I235" s="18"/>
     </row>
     <row r="236" spans="1:9" ht="13.5" customHeight="1">
       <c r="A236" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B236"/>
       <c r="C236" t="s">
@@ -9440,19 +9442,19 @@
         <v>18</v>
       </c>
       <c r="E236"/>
-      <c r="F236" s="82" t="s">
+      <c r="F236" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="G236" s="83" t="s">
+      <c r="G236" s="82" t="s">
         <v>16</v>
       </c>
       <c r="H236" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="13.5" customHeight="1">
       <c r="A237" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B237"/>
       <c r="C237" t="s">
@@ -9462,14 +9464,14 @@
         <v>18</v>
       </c>
       <c r="E237"/>
-      <c r="F237" s="82" t="s">
+      <c r="F237" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="G237" s="83" t="s">
+      <c r="G237" s="82" t="s">
         <v>16</v>
       </c>
       <c r="H237" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="13.5" customHeight="1">
@@ -9605,7 +9607,7 @@
       <c r="I249" s="10"/>
     </row>
     <row r="250" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A250" s="80"/>
+      <c r="A250" s="79"/>
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
       <c r="D250" s="10"/>
@@ -9616,7 +9618,7 @@
       <c r="I250" s="10"/>
     </row>
     <row r="251" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A251" s="81"/>
+      <c r="A251" s="80"/>
       <c r="B251" s="18"/>
       <c r="C251" s="10"/>
       <c r="D251" s="10"/>

--- a/Config Files/AOC-4_NBFC_CFS_nodes_seperated_config_new.xlsx
+++ b/Config Files/AOC-4_NBFC_CFS_nodes_seperated_config_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB29517-8390-496C-8BC3-F4CDF942D17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E64D41D-70BC-4797-B0D8-CA5328D8698B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="356">
   <si>
     <t>Field_Name</t>
   </si>
@@ -2915,7 +2915,7 @@
   <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -5367,18 +5367,12 @@
       <c r="B88" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="40" t="s">
-        <v>161</v>
-      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="40"/>
       <c r="E88" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F88" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="F88" s="13"/>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="39"/>
@@ -6360,18 +6354,12 @@
       <c r="B123" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="40" t="s">
-        <v>161</v>
-      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="40"/>
       <c r="E123" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F123" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="F123" s="13"/>
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
       <c r="I123" s="39"/>
@@ -9629,6 +9617,7 @@
       <c r="I251" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I237" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
